--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250309.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_BAKERY_20250309.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,168 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>711MAVYELLOW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sprinkles - Yellow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>61.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>150BB4224N</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bag Paper - Baguette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>230.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>612PIE8DEEP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pie Tin - 8"</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>114.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>114.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6x13.5 Window</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>319.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>150BB6218N</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6.5x17.75 Window</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>104.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>314.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>245882WB</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x2.5 (window)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
